--- a/src/test/resources/Documents/25915/Base/JobMaterial.xlsx
+++ b/src/test/resources/Documents/25915/Base/JobMaterial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
   <si>
     <t>Materialtype</t>
   </si>
@@ -47,13 +47,13 @@
     <t>1b-Design Jet</t>
   </si>
   <si>
-    <t>Outer wrap  2p</t>
-  </si>
-  <si>
-    <t>Print F 2x0</t>
-  </si>
-  <si>
-    <t>Design Jet - 19x25</t>
+    <t>Text 24p / 12p - 1</t>
+  </si>
+  <si>
+    <t>Print F 1x0</t>
+  </si>
+  <si>
+    <t>Design Jet - 28x40</t>
   </si>
   <si>
     <t>1.00</t>
@@ -68,46 +68,97 @@
     <t>445 - iQuote - Proofs - Each</t>
   </si>
   <si>
+    <t>Text 12p</t>
+  </si>
+  <si>
+    <t>Text 24p / 12p - 2</t>
+  </si>
+  <si>
+    <t>Cover Saddle Stitch  4p</t>
+  </si>
+  <si>
+    <t>Score Inline F 1x0</t>
+  </si>
+  <si>
+    <t>1b-Epson</t>
+  </si>
+  <si>
+    <t>Epson - 28x40</t>
+  </si>
+  <si>
+    <t>Box (packaging)</t>
+  </si>
+  <si>
+    <t>Bound Packed</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>Box 9.25x12.25x12.5 USK-375 RSC</t>
+  </si>
+  <si>
+    <t>474.00</t>
+  </si>
+  <si>
+    <t>shboxmed - Medium Box 17 ½ x 11 ½ x 8 ¾  or smaller</t>
+  </si>
+  <si>
+    <t>Finishing raw material - each (gen)</t>
+  </si>
+  <si>
+    <t>Impression Cylinder Jacket</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>Imp-Cyl-Jkt - Impression Cylinder Jacket</t>
+  </si>
+  <si>
+    <t>Finishing raw material - inch (gen)</t>
+  </si>
+  <si>
+    <t>Score / Perf Rule per "</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>Inch</t>
+  </si>
+  <si>
+    <t>439 - iQuote - per inch (No PO REQ)</t>
+  </si>
+  <si>
     <t>Ink / Varnish</t>
   </si>
   <si>
+    <t>Yellow - UV</t>
+  </si>
+  <si>
+    <t>23.45</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>UV-4 CP - UV- 4 Color Process</t>
+  </si>
+  <si>
+    <t>11.83</t>
+  </si>
+  <si>
     <t>Black - UV</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t>UV-4 CP - UV- 4 Color Process</t>
-  </si>
-  <si>
-    <t>Pantone-1 - UV</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>UV-PMS - UV-PMS</t>
-  </si>
-  <si>
-    <t>Print F (Varnish 1x0)</t>
-  </si>
-  <si>
-    <t>SGUV - Cyrel - (Post Finishing)</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>uv - UV coating</t>
+    <t>4.03</t>
   </si>
   <si>
     <t>Plate</t>
   </si>
   <si>
-    <t>Plate - Outer wrap  2p</t>
+    <t>Plate - Text 24p / 12p - 1</t>
   </si>
   <si>
     <t>Plate burn</t>
@@ -116,49 +167,40 @@
     <t>CTP 40"</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>CTP40 - CTP Plate 40"</t>
   </si>
   <si>
-    <t>Cyrel Plate</t>
-  </si>
-  <si>
-    <t>450 - ***40" Cyrel Plate for Press_________***</t>
+    <t>Plate - Text 12p</t>
+  </si>
+  <si>
+    <t>Plate - Text 24p / 12p - 2</t>
+  </si>
+  <si>
+    <t>Plate - Cover Saddle Stitch  4p</t>
   </si>
   <si>
     <t>Sheet</t>
   </si>
   <si>
-    <t>Sterling Ultra C1S Gloss Verso Non FSC 80# 19 x 25" 500 ppi</t>
-  </si>
-  <si>
-    <t>400.00</t>
-  </si>
-  <si>
-    <t>Sht</t>
-  </si>
-  <si>
-    <t>430 - Offset Stock Per 1000 cost for Jobs Only</t>
-  </si>
-  <si>
-    <t>Liner  2p</t>
-  </si>
-  <si>
-    <t>Cut for Press</t>
-  </si>
-  <si>
-    <t>Special Order Coated Book Non FSC 100 24 x 36" 400 ppi</t>
-  </si>
-  <si>
-    <t>150.00</t>
+    <t>Special Order Coated Book Non FSC 100 28 x 40" 400 ppi</t>
+  </si>
+  <si>
+    <t>46,647.00</t>
   </si>
   <si>
     <t>Sht.</t>
   </si>
   <si>
     <t>429 - Offset Stock cost ea for Jobs Only-Use  for shipping too.</t>
+  </si>
+  <si>
+    <t>23,525.00</t>
+  </si>
+  <si>
+    <t>Special Order Coated Book Non FSC 60 28 x 40" 660 ppi</t>
+  </si>
+  <si>
+    <t>8,009.00</t>
   </si>
 </sst>
 </file>
@@ -166,13 +208,573 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="66">
+  <fonts count="178">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -520,7 +1122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -587,6 +1189,118 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -659,97 +1373,97 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="11">
         <v>18</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>11</v>
       </c>
       <c r="C3" t="s" s="12">
         <v>12</v>
       </c>
       <c r="D3" t="s" s="13">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="15">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s" s="16">
         <v>16</v>
       </c>
       <c r="H3" t="s" s="17">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="19">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="20">
         <v>12</v>
       </c>
       <c r="D4" t="s" s="21">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="22">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="23">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="24">
         <v>16</v>
       </c>
       <c r="H4" t="s" s="25">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="26">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="27">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="28">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="29">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s" s="30">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="31">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="32">
         <v>16</v>
       </c>
       <c r="H5" t="s" s="33">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="34">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="35">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="36">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="37">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s" s="38">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="39">
         <v>15</v>
@@ -758,21 +1472,21 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="41">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="42">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s" s="43">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="44">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s" s="45">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s" s="46">
         <v>14</v>
@@ -784,59 +1498,423 @@
         <v>16</v>
       </c>
       <c r="H7" t="s" s="49">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="50">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="51">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="52">
         <v>12</v>
       </c>
       <c r="D8" t="s" s="53">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s" s="54">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="55">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s" s="56">
         <v>16</v>
       </c>
       <c r="H8" t="s" s="57">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="58">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="59">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="60">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s" s="61">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s" s="62">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s" s="63">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="64">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="65">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="66">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s" s="67">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="68">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s" s="69">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s" s="70">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s" s="71">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="72">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="73">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="74">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="75">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="76">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s" s="77">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s" s="78">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s" s="79">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s" s="80">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="81">
         <v>38</v>
       </c>
-      <c r="B9" t="s" s="59">
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="82">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s" s="83">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s" s="84">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="85">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s" s="86">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s" s="87">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s" s="88">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="89">
         <v>43</v>
       </c>
-      <c r="C9" t="s" s="60">
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="90">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s" s="91">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s" s="92">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="93">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s" s="94">
         <v>44</v>
       </c>
-      <c r="D9" t="s" s="61">
+      <c r="F13" t="s" s="95">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s" s="96">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="97">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="98">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="99">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s" s="100">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="101">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s" s="102">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s" s="103">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s" s="104">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="105">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="106">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s" s="107">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s" s="108">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s" s="109">
         <v>45</v>
       </c>
-      <c r="E9" t="s" s="62">
+      <c r="E15" t="s" s="110">
         <v>46</v>
       </c>
-      <c r="F9" t="s" s="63">
+      <c r="F15" t="s" s="111">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s" s="112">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="113">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="114">
         <v>47</v>
       </c>
-      <c r="G9" t="s" s="64">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s" s="65">
+      <c r="B16" t="s" s="115">
         <v>48</v>
+      </c>
+      <c r="C16" t="s" s="116">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s" s="117">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s" s="118">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s" s="119">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="120">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="121">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="122">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s" s="123">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s" s="124">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s" s="125">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="127">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="128">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="129">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="130">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s" s="131">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s" s="132">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s" s="133">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s" s="134">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="135">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="136">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="137">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="138">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s" s="139">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s" s="140">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s" s="141">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s" s="142">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="143">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="144">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="145">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="146">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s" s="147">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s" s="148">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="149">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s" s="150">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s" s="151">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s" s="152">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="153">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="154">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s" s="155">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s" s="156">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="157">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s" s="158">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s" s="159">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s" s="160">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="161">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="162">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s" s="163">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s" s="164">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s" s="165">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s" s="166">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s" s="167">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s" s="168">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="169">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="170">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s" s="171">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s" s="172">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s" s="173">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s" s="174">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s" s="175">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s" s="176">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="177">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
